--- a/notebooks/transactions.xlsx
+++ b/notebooks/transactions.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,8 +492,10 @@
       <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>44609</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-02-17</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -529,8 +527,10 @@
       <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>44610</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-02-18</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -562,8 +562,10 @@
       <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>44617</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -595,8 +597,10 @@
       <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>44617</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -628,8 +632,10 @@
       <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>44617</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -661,8 +667,10 @@
       <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>44617</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -694,8 +702,10 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>44617</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -735,8 +745,10 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>44617</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -768,8 +780,10 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>44617</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -801,8 +815,10 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>44617</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -842,8 +858,10 @@
       <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>44617</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -875,8 +893,10 @@
       <c r="C13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>44617</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -906,8 +926,10 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" s="2" t="n">
-        <v>44617</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -945,8 +967,10 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" s="2" t="n">
-        <v>44617</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-02-25</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -986,8 +1010,10 @@
       <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>44620</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1019,8 +1045,10 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>44620</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-02-28</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1060,8 +1088,10 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>44622</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1093,8 +1123,10 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>44622</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1126,8 +1158,10 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>44622</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1159,8 +1193,10 @@
       <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>44622</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1192,8 +1228,10 @@
       <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>44622</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-03-02</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1225,8 +1263,10 @@
       <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="n">
-        <v>44645</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1262,8 +1302,10 @@
       <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="n">
-        <v>44645</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2022-03-25</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1295,8 +1337,10 @@
       <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="n">
-        <v>44650</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,8 +1376,10 @@
       <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>44655</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-04-04</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1365,8 +1411,10 @@
       <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="2" t="n">
-        <v>44663</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1398,8 +1446,10 @@
       <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="n">
-        <v>44663</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1431,8 +1481,10 @@
       <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="2" t="n">
-        <v>44663</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2022-04-12</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1472,8 +1524,10 @@
       <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="n">
-        <v>44672</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1505,8 +1559,10 @@
       <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>44672</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2022-04-21</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1538,8 +1594,10 @@
       <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>44673</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1571,8 +1629,10 @@
       <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="2" t="n">
-        <v>44673</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1604,8 +1664,10 @@
       <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="n">
-        <v>44673</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2022-04-22</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1645,8 +1707,10 @@
       <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>44684</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2022-05-03</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1678,8 +1742,10 @@
       <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="2" t="n">
-        <v>44708</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1711,8 +1777,10 @@
       <c r="C37" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="2" t="n">
-        <v>44708</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1742,8 +1810,10 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" s="2" t="n">
-        <v>44708</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2022-05-27</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1783,8 +1853,10 @@
       <c r="C39" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="2" t="n">
-        <v>44711</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1816,8 +1888,10 @@
       <c r="C40" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="2" t="n">
-        <v>44711</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1849,8 +1923,10 @@
       <c r="C41" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="n">
-        <v>44711</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2022-05-30</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1890,8 +1966,10 @@
       <c r="C42" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="2" t="n">
-        <v>44712</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1923,8 +2001,10 @@
       <c r="C43" t="n">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="n">
-        <v>44712</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1956,8 +2036,10 @@
       <c r="C44" t="n">
         <v>1</v>
       </c>
-      <c r="D44" s="2" t="n">
-        <v>44712</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1997,8 +2079,10 @@
       <c r="C45" t="n">
         <v>1</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>44712</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2030,8 +2114,10 @@
       <c r="C46" t="n">
         <v>1</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>44712</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2063,8 +2149,10 @@
       <c r="C47" t="n">
         <v>1</v>
       </c>
-      <c r="D47" s="2" t="n">
-        <v>44712</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2104,8 +2192,10 @@
       <c r="C48" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="n">
-        <v>44713</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2022-06-01</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2137,8 +2227,10 @@
       <c r="C49" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>44719</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2170,8 +2262,10 @@
       <c r="C50" t="n">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="n">
-        <v>44728</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2203,8 +2297,10 @@
       <c r="C51" t="n">
         <v>1</v>
       </c>
-      <c r="D51" s="2" t="n">
-        <v>44728</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2236,8 +2332,10 @@
       <c r="C52" t="n">
         <v>1</v>
       </c>
-      <c r="D52" s="2" t="n">
-        <v>44728</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2277,8 +2375,10 @@
       <c r="C53" t="n">
         <v>1</v>
       </c>
-      <c r="D53" s="2" t="n">
-        <v>44728</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2310,8 +2410,10 @@
       <c r="C54" t="n">
         <v>1</v>
       </c>
-      <c r="D54" s="2" t="n">
-        <v>44728</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2341,8 +2443,10 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" s="2" t="n">
-        <v>44728</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2382,8 +2486,10 @@
       <c r="C56" t="n">
         <v>1</v>
       </c>
-      <c r="D56" s="2" t="n">
-        <v>44741</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2419,8 +2525,10 @@
       <c r="C57" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="2" t="n">
-        <v>44746</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2456,8 +2564,10 @@
       <c r="C58" t="n">
         <v>1</v>
       </c>
-      <c r="D58" s="2" t="n">
-        <v>44746</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2022-07-04</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2489,8 +2599,10 @@
       <c r="C59" t="n">
         <v>1</v>
       </c>
-      <c r="D59" s="2" t="n">
-        <v>44749</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2522,8 +2634,10 @@
       <c r="C60" t="n">
         <v>1</v>
       </c>
-      <c r="D60" s="2" t="n">
-        <v>44774</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2559,8 +2673,10 @@
       <c r="C61" t="n">
         <v>1</v>
       </c>
-      <c r="D61" s="2" t="n">
-        <v>44774</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2592,8 +2708,10 @@
       <c r="C62" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="2" t="n">
-        <v>44776</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2625,8 +2743,10 @@
       <c r="C63" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>44811</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2658,8 +2778,10 @@
       <c r="C64" t="n">
         <v>1</v>
       </c>
-      <c r="D64" s="2" t="n">
-        <v>44833</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2695,8 +2817,10 @@
       <c r="C65" t="n">
         <v>1</v>
       </c>
-      <c r="D65" s="2" t="n">
-        <v>44834</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2732,8 +2856,10 @@
       <c r="C66" t="n">
         <v>1</v>
       </c>
-      <c r="D66" s="2" t="n">
-        <v>44834</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2022-09-30</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2765,8 +2891,10 @@
       <c r="C67" t="n">
         <v>1</v>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>44838</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022-10-04</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2798,8 +2926,10 @@
       <c r="C68" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="n">
-        <v>44865</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2835,8 +2965,10 @@
       <c r="C69" t="n">
         <v>1</v>
       </c>
-      <c r="D69" s="2" t="n">
-        <v>44865</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2022-10-31</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2868,8 +3000,10 @@
       <c r="C70" t="n">
         <v>1</v>
       </c>
-      <c r="D70" s="2" t="n">
-        <v>44867</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2022-11-02</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2901,8 +3035,10 @@
       <c r="C71" t="n">
         <v>1</v>
       </c>
-      <c r="D71" s="2" t="n">
-        <v>44872</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2934,8 +3070,10 @@
       <c r="C72" t="n">
         <v>1</v>
       </c>
-      <c r="D72" s="2" t="n">
-        <v>44872</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2975,8 +3113,10 @@
       <c r="C73" t="n">
         <v>1</v>
       </c>
-      <c r="D73" s="2" t="n">
-        <v>44872</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3008,8 +3148,10 @@
       <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="D74" s="2" t="n">
-        <v>44872</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3041,8 +3183,10 @@
       <c r="C75" t="n">
         <v>1</v>
       </c>
-      <c r="D75" s="2" t="n">
-        <v>44872</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3082,8 +3226,10 @@
       <c r="C76" t="n">
         <v>1</v>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>44872</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3115,8 +3261,10 @@
       <c r="C77" t="n">
         <v>1</v>
       </c>
-      <c r="D77" s="2" t="n">
-        <v>44872</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3146,8 +3294,10 @@
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" s="2" t="n">
-        <v>44872</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2022-11-07</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3187,8 +3337,10 @@
       <c r="C79" t="n">
         <v>1</v>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>44918</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3224,8 +3376,10 @@
       <c r="C80" t="n">
         <v>1</v>
       </c>
-      <c r="D80" s="2" t="n">
-        <v>44918</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022-12-23</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3257,8 +3411,10 @@
       <c r="C81" t="n">
         <v>1</v>
       </c>
-      <c r="D81" s="2" t="n">
-        <v>44928</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-01-02</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3294,8 +3450,10 @@
       <c r="C82" t="n">
         <v>1</v>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>44929</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3327,8 +3485,10 @@
       <c r="C83" t="n">
         <v>1</v>
       </c>
-      <c r="D83" s="2" t="n">
-        <v>44929</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3360,8 +3520,10 @@
       <c r="C84" t="n">
         <v>1</v>
       </c>
-      <c r="D84" s="2" t="n">
-        <v>44929</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3393,8 +3555,10 @@
       <c r="C85" t="n">
         <v>1</v>
       </c>
-      <c r="D85" s="2" t="n">
-        <v>44929</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3426,8 +3590,10 @@
       <c r="C86" t="n">
         <v>1</v>
       </c>
-      <c r="D86" s="2" t="n">
-        <v>44929</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3459,8 +3625,10 @@
       <c r="C87" t="n">
         <v>1</v>
       </c>
-      <c r="D87" s="2" t="n">
-        <v>44929</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-01-03</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3492,8 +3660,10 @@
       <c r="C88" t="n">
         <v>1</v>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>44956</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3529,8 +3699,10 @@
       <c r="C89" t="n">
         <v>1</v>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>44956</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-01-30</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3562,8 +3734,10 @@
       <c r="C90" t="n">
         <v>1</v>
       </c>
-      <c r="D90" s="2" t="n">
-        <v>44959</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-02-02</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3595,8 +3769,10 @@
       <c r="C91" t="n">
         <v>2</v>
       </c>
-      <c r="D91" s="2" t="n">
-        <v>44970</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3628,8 +3804,10 @@
       <c r="C92" t="n">
         <v>1</v>
       </c>
-      <c r="D92" s="2" t="n">
-        <v>44987</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-03-02</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3661,8 +3839,10 @@
       <c r="C93" t="n">
         <v>1</v>
       </c>
-      <c r="D93" s="2" t="n">
-        <v>45014</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-03-29</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3698,8 +3878,10 @@
       <c r="C94" t="n">
         <v>1</v>
       </c>
-      <c r="D94" s="2" t="n">
-        <v>45015</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3735,8 +3917,10 @@
       <c r="C95" t="n">
         <v>1</v>
       </c>
-      <c r="D95" s="2" t="n">
-        <v>45015</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3768,8 +3952,10 @@
       <c r="C96" t="n">
         <v>1</v>
       </c>
-      <c r="D96" s="2" t="n">
-        <v>45020</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-04-04</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3801,8 +3987,10 @@
       <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97" s="2" t="n">
-        <v>45028</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3834,8 +4022,10 @@
       <c r="C98" t="n">
         <v>1</v>
       </c>
-      <c r="D98" s="2" t="n">
-        <v>45028</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3867,8 +4057,10 @@
       <c r="C99" t="n">
         <v>1</v>
       </c>
-      <c r="D99" s="2" t="n">
-        <v>45028</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3908,8 +4100,10 @@
       <c r="C100" t="n">
         <v>1</v>
       </c>
-      <c r="D100" s="2" t="n">
-        <v>45028</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3941,8 +4135,10 @@
       <c r="C101" t="n">
         <v>1</v>
       </c>
-      <c r="D101" s="2" t="n">
-        <v>45028</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3974,8 +4170,10 @@
       <c r="C102" t="n">
         <v>1</v>
       </c>
-      <c r="D102" s="2" t="n">
-        <v>45028</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4015,8 +4213,10 @@
       <c r="C103" t="n">
         <v>1</v>
       </c>
-      <c r="D103" s="2" t="n">
-        <v>45028</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4048,8 +4248,10 @@
       <c r="C104" t="n">
         <v>1</v>
       </c>
-      <c r="D104" s="2" t="n">
-        <v>45028</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4081,8 +4283,10 @@
       <c r="C105" t="n">
         <v>1</v>
       </c>
-      <c r="D105" s="2" t="n">
-        <v>45028</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4114,8 +4318,10 @@
       <c r="C106" t="n">
         <v>1</v>
       </c>
-      <c r="D106" s="2" t="n">
-        <v>45028</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4147,8 +4353,10 @@
       <c r="C107" t="n">
         <v>1</v>
       </c>
-      <c r="D107" s="2" t="n">
-        <v>45028</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4180,8 +4388,10 @@
       <c r="C108" t="n">
         <v>1</v>
       </c>
-      <c r="D108" s="2" t="n">
-        <v>45028</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4221,8 +4431,10 @@
       <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="D109" s="2" t="n">
-        <v>45028</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4254,8 +4466,10 @@
       <c r="C110" t="n">
         <v>1</v>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>45028</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4285,8 +4499,10 @@
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
-      <c r="D111" s="2" t="n">
-        <v>45028</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4324,8 +4540,10 @@
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
-      <c r="D112" s="2" t="n">
-        <v>45028</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4363,8 +4581,10 @@
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" s="2" t="n">
-        <v>45028</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-04-12</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4404,8 +4624,10 @@
       <c r="C114" t="n">
         <v>1</v>
       </c>
-      <c r="D114" s="2" t="n">
-        <v>45047</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4441,8 +4663,10 @@
       <c r="C115" t="n">
         <v>1</v>
       </c>
-      <c r="D115" s="2" t="n">
-        <v>45047</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-05-01</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4474,8 +4698,10 @@
       <c r="C116" t="n">
         <v>1</v>
       </c>
-      <c r="D116" s="2" t="n">
-        <v>45049</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-05-03</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4507,8 +4733,10 @@
       <c r="C117" t="n">
         <v>1</v>
       </c>
-      <c r="D117" s="2" t="n">
-        <v>45082</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-06-05</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4540,8 +4768,10 @@
       <c r="C118" t="n">
         <v>1</v>
       </c>
-      <c r="D118" s="2" t="n">
-        <v>45105</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-06-28</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4577,8 +4807,10 @@
       <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="D119" s="2" t="n">
-        <v>45110</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4614,8 +4846,10 @@
       <c r="C120" t="n">
         <v>1</v>
       </c>
-      <c r="D120" s="2" t="n">
-        <v>45110</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-07-03</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4647,8 +4881,10 @@
       <c r="C121" t="n">
         <v>1</v>
       </c>
-      <c r="D121" s="2" t="n">
-        <v>45111</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-07-04</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4680,8 +4916,10 @@
       <c r="C122" t="n">
         <v>1</v>
       </c>
-      <c r="D122" s="2" t="n">
-        <v>45138</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -4717,8 +4955,10 @@
       <c r="C123" t="n">
         <v>1</v>
       </c>
-      <c r="D123" s="2" t="n">
-        <v>45138</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-07-31</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -4750,8 +4990,10 @@
       <c r="C124" t="n">
         <v>1</v>
       </c>
-      <c r="D124" s="2" t="n">
-        <v>45140</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-08-02</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -4783,8 +5025,10 @@
       <c r="C125" t="n">
         <v>1</v>
       </c>
-      <c r="D125" s="2" t="n">
-        <v>45174</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -4816,8 +5060,10 @@
       <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="D126" s="2" t="n">
-        <v>45196</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-09-27</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -4853,8 +5099,10 @@
       <c r="C127" t="n">
         <v>1</v>
       </c>
-      <c r="D127" s="2" t="n">
-        <v>45198</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -4890,8 +5138,10 @@
       <c r="C128" t="n">
         <v>1</v>
       </c>
-      <c r="D128" s="2" t="n">
-        <v>45198</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-09-29</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -4923,8 +5173,10 @@
       <c r="C129" t="n">
         <v>1</v>
       </c>
-      <c r="D129" s="2" t="n">
-        <v>45202</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-10-03</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -4956,8 +5208,10 @@
       <c r="C130" t="n">
         <v>1</v>
       </c>
-      <c r="D130" s="2" t="n">
-        <v>45229</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -4993,8 +5247,10 @@
       <c r="C131" t="n">
         <v>1</v>
       </c>
-      <c r="D131" s="2" t="n">
-        <v>45229</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5026,8 +5282,10 @@
       <c r="C132" t="n">
         <v>1</v>
       </c>
-      <c r="D132" s="2" t="n">
-        <v>45232</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5059,8 +5317,10 @@
       <c r="C133" t="n">
         <v>1</v>
       </c>
-      <c r="D133" s="2" t="n">
-        <v>45264</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-12-04</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5092,8 +5352,10 @@
       <c r="C134" t="n">
         <v>1</v>
       </c>
-      <c r="D134" s="2" t="n">
-        <v>45271</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5125,8 +5387,10 @@
       <c r="C135" t="n">
         <v>1</v>
       </c>
-      <c r="D135" s="2" t="n">
-        <v>45271</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5158,8 +5422,10 @@
       <c r="C136" t="n">
         <v>1</v>
       </c>
-      <c r="D136" s="2" t="n">
-        <v>45271</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5199,8 +5465,10 @@
       <c r="C137" t="n">
         <v>1</v>
       </c>
-      <c r="D137" s="2" t="n">
-        <v>45271</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5232,8 +5500,10 @@
       <c r="C138" t="n">
         <v>1</v>
       </c>
-      <c r="D138" s="2" t="n">
-        <v>45271</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5263,8 +5533,10 @@
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" s="2" t="n">
-        <v>45271</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-12-11</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5304,8 +5576,10 @@
       <c r="C140" t="n">
         <v>1</v>
       </c>
-      <c r="D140" s="2" t="n">
-        <v>45280</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5341,8 +5615,10 @@
       <c r="C141" t="n">
         <v>1</v>
       </c>
-      <c r="D141" s="2" t="n">
-        <v>45280</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-12-20</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5374,8 +5650,10 @@
       <c r="C142" t="n">
         <v>1</v>
       </c>
-      <c r="D142" s="2" t="n">
-        <v>45288</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-12-28</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5411,8 +5689,10 @@
       <c r="C143" t="n">
         <v>1</v>
       </c>
-      <c r="D143" s="2" t="n">
-        <v>45289</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5448,8 +5728,10 @@
       <c r="C144" t="n">
         <v>1</v>
       </c>
-      <c r="D144" s="2" t="n">
-        <v>45289</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-12-29</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5481,8 +5763,10 @@
       <c r="C145" t="n">
         <v>1</v>
       </c>
-      <c r="D145" s="2" t="n">
-        <v>45294</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024-01-03</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5514,8 +5798,10 @@
       <c r="C146" t="n">
         <v>1</v>
       </c>
-      <c r="D146" s="2" t="n">
-        <v>45320</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5551,8 +5837,10 @@
       <c r="C147" t="n">
         <v>1</v>
       </c>
-      <c r="D147" s="2" t="n">
-        <v>45320</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5584,8 +5872,10 @@
       <c r="C148" t="n">
         <v>1</v>
       </c>
-      <c r="D148" s="2" t="n">
-        <v>45324</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5617,8 +5907,10 @@
       <c r="C149" t="n">
         <v>1</v>
       </c>
-      <c r="D149" s="2" t="n">
-        <v>45327</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -5650,8 +5942,10 @@
       <c r="C150" t="n">
         <v>1</v>
       </c>
-      <c r="D150" s="2" t="n">
-        <v>45327</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -5683,8 +5977,10 @@
       <c r="C151" t="n">
         <v>1</v>
       </c>
-      <c r="D151" s="2" t="n">
-        <v>45327</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -5716,8 +6012,10 @@
       <c r="C152" t="n">
         <v>1</v>
       </c>
-      <c r="D152" s="2" t="n">
-        <v>45327</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024-02-05</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -5749,8 +6047,10 @@
       <c r="C153" t="n">
         <v>1</v>
       </c>
-      <c r="D153" s="2" t="n">
-        <v>45345</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -5782,8 +6082,10 @@
       <c r="C154" t="n">
         <v>1</v>
       </c>
-      <c r="D154" s="2" t="n">
-        <v>45345</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -5815,8 +6117,10 @@
       <c r="C155" t="n">
         <v>1</v>
       </c>
-      <c r="D155" s="2" t="n">
-        <v>45345</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -5848,8 +6152,10 @@
       <c r="C156" t="n">
         <v>1</v>
       </c>
-      <c r="D156" s="2" t="n">
-        <v>45345</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -5889,8 +6195,10 @@
       <c r="C157" t="n">
         <v>1</v>
       </c>
-      <c r="D157" s="2" t="n">
-        <v>45345</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -5930,8 +6238,10 @@
       <c r="C158" t="n">
         <v>1</v>
       </c>
-      <c r="D158" s="2" t="n">
-        <v>45356</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -5963,8 +6273,10 @@
       <c r="C159" t="n">
         <v>1</v>
       </c>
-      <c r="D159" s="2" t="n">
-        <v>45378</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6000,8 +6312,10 @@
       <c r="C160" t="n">
         <v>1</v>
       </c>
-      <c r="D160" s="2" t="n">
-        <v>45379</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6033,8 +6347,10 @@
       <c r="C161" t="n">
         <v>1</v>
       </c>
-      <c r="D161" s="2" t="n">
-        <v>45379</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2024-03-28</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6070,8 +6386,10 @@
       <c r="C162" t="n">
         <v>1</v>
       </c>
-      <c r="D162" s="2" t="n">
-        <v>45385</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2024-04-03</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6103,8 +6421,10 @@
       <c r="C163" t="n">
         <v>1</v>
       </c>
-      <c r="D163" s="2" t="n">
-        <v>45394</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6140,8 +6460,10 @@
       <c r="C164" t="n">
         <v>1</v>
       </c>
-      <c r="D164" s="2" t="n">
-        <v>45394</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2024-04-12</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -6173,8 +6495,10 @@
       <c r="C165" t="n">
         <v>1</v>
       </c>
-      <c r="D165" s="2" t="n">
-        <v>45411</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6206,8 +6530,10 @@
       <c r="C166" t="n">
         <v>1</v>
       </c>
-      <c r="D166" s="2" t="n">
-        <v>45411</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6243,8 +6569,10 @@
       <c r="C167" t="n">
         <v>1</v>
       </c>
-      <c r="D167" s="2" t="n">
-        <v>45419</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6276,8 +6604,10 @@
       <c r="C168" t="n">
         <v>1</v>
       </c>
-      <c r="D168" s="2" t="n">
-        <v>45447</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6307,8 +6637,10 @@
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" s="2" t="n">
-        <v>45452</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6346,8 +6678,10 @@
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" s="2" t="n">
-        <v>45452</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2024-06-09</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -6387,8 +6721,10 @@
       <c r="C171" t="n">
         <v>1</v>
       </c>
-      <c r="D171" s="2" t="n">
-        <v>45474</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6420,8 +6756,10 @@
       <c r="C172" t="n">
         <v>1</v>
       </c>
-      <c r="D172" s="2" t="n">
-        <v>45474</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2024-07-01</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6457,8 +6795,10 @@
       <c r="C173" t="n">
         <v>1</v>
       </c>
-      <c r="D173" s="2" t="n">
-        <v>45476</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6490,8 +6830,10 @@
       <c r="C174" t="n">
         <v>1</v>
       </c>
-      <c r="D174" s="2" t="n">
-        <v>45476</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6527,8 +6869,10 @@
       <c r="C175" t="n">
         <v>1</v>
       </c>
-      <c r="D175" s="2" t="n">
-        <v>45482</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -6560,8 +6904,10 @@
       <c r="C176" t="n">
         <v>2</v>
       </c>
-      <c r="D176" s="2" t="n">
-        <v>45482</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -6593,8 +6939,10 @@
       <c r="C177" t="n">
         <v>1</v>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>45485</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -6626,8 +6974,10 @@
       <c r="C178" t="n">
         <v>1</v>
       </c>
-      <c r="D178" s="2" t="n">
-        <v>45485</v>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -6659,8 +7009,10 @@
       <c r="C179" t="n">
         <v>1</v>
       </c>
-      <c r="D179" s="2" t="n">
-        <v>45485</v>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -6700,8 +7052,10 @@
       <c r="C180" t="n">
         <v>1</v>
       </c>
-      <c r="D180" s="2" t="n">
-        <v>45485</v>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -6733,8 +7087,10 @@
       <c r="C181" t="n">
         <v>1</v>
       </c>
-      <c r="D181" s="2" t="n">
-        <v>45485</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -6766,8 +7122,10 @@
       <c r="C182" t="n">
         <v>1</v>
       </c>
-      <c r="D182" s="2" t="n">
-        <v>45485</v>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -6799,8 +7157,10 @@
       <c r="C183" t="n">
         <v>1</v>
       </c>
-      <c r="D183" s="2" t="n">
-        <v>45485</v>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -6832,8 +7192,10 @@
       <c r="C184" t="n">
         <v>1</v>
       </c>
-      <c r="D184" s="2" t="n">
-        <v>45485</v>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -6865,8 +7227,10 @@
       <c r="C185" t="n">
         <v>1</v>
       </c>
-      <c r="D185" s="2" t="n">
-        <v>45485</v>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -6898,8 +7262,10 @@
       <c r="C186" t="n">
         <v>1</v>
       </c>
-      <c r="D186" s="2" t="n">
-        <v>45485</v>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -6939,8 +7305,10 @@
       <c r="C187" t="n">
         <v>1</v>
       </c>
-      <c r="D187" s="2" t="n">
-        <v>45485</v>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -6972,8 +7340,10 @@
       <c r="C188" t="n">
         <v>1</v>
       </c>
-      <c r="D188" s="2" t="n">
-        <v>45485</v>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7005,8 +7375,10 @@
       <c r="C189" t="n">
         <v>1</v>
       </c>
-      <c r="D189" s="2" t="n">
-        <v>45485</v>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -7046,8 +7418,10 @@
       <c r="C190" t="n">
         <v>1</v>
       </c>
-      <c r="D190" s="2" t="n">
-        <v>45485</v>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7079,8 +7453,10 @@
       <c r="C191" t="n">
         <v>1</v>
       </c>
-      <c r="D191" s="2" t="n">
-        <v>45485</v>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -7112,8 +7488,10 @@
       <c r="C192" t="n">
         <v>1</v>
       </c>
-      <c r="D192" s="2" t="n">
-        <v>45485</v>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -7153,8 +7531,10 @@
       <c r="C193" t="n">
         <v>1</v>
       </c>
-      <c r="D193" s="2" t="n">
-        <v>45485</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7186,8 +7566,10 @@
       <c r="C194" t="n">
         <v>1</v>
       </c>
-      <c r="D194" s="2" t="n">
-        <v>45485</v>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7219,8 +7601,10 @@
       <c r="C195" t="n">
         <v>1</v>
       </c>
-      <c r="D195" s="2" t="n">
-        <v>45485</v>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7260,8 +7644,10 @@
       <c r="C196" t="n">
         <v>1</v>
       </c>
-      <c r="D196" s="2" t="n">
-        <v>45485</v>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7293,8 +7679,10 @@
       <c r="C197" t="n">
         <v>1</v>
       </c>
-      <c r="D197" s="2" t="n">
-        <v>45485</v>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7326,8 +7714,10 @@
       <c r="C198" t="n">
         <v>1</v>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>45485</v>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7359,8 +7749,10 @@
       <c r="C199" t="n">
         <v>1</v>
       </c>
-      <c r="D199" s="2" t="n">
-        <v>45485</v>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7392,8 +7784,10 @@
       <c r="C200" t="n">
         <v>1</v>
       </c>
-      <c r="D200" s="2" t="n">
-        <v>45485</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7425,8 +7819,10 @@
       <c r="C201" t="n">
         <v>1</v>
       </c>
-      <c r="D201" s="2" t="n">
-        <v>45485</v>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -7466,8 +7862,10 @@
       <c r="C202" t="n">
         <v>1</v>
       </c>
-      <c r="D202" s="2" t="n">
-        <v>45485</v>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -7505,8 +7903,10 @@
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
-      <c r="D203" s="2" t="n">
-        <v>45485</v>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -7546,8 +7946,10 @@
       <c r="C204" t="n">
         <v>1</v>
       </c>
-      <c r="D204" s="2" t="n">
-        <v>45499</v>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -7583,8 +7985,10 @@
       <c r="C205" t="n">
         <v>1</v>
       </c>
-      <c r="D205" s="2" t="n">
-        <v>45499</v>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -7620,8 +8024,10 @@
       <c r="C206" t="n">
         <v>1</v>
       </c>
-      <c r="D206" s="2" t="n">
-        <v>45499</v>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2024-07-26</t>
+        </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -7653,8 +8059,10 @@
       <c r="C207" t="n">
         <v>1</v>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>45502</v>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -7690,8 +8098,10 @@
       <c r="C208" t="n">
         <v>1</v>
       </c>
-      <c r="D208" s="2" t="n">
-        <v>45502</v>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -7727,8 +8137,10 @@
       <c r="C209" t="n">
         <v>1</v>
       </c>
-      <c r="D209" s="2" t="n">
-        <v>45502</v>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -7760,8 +8172,10 @@
       <c r="C210" t="n">
         <v>1</v>
       </c>
-      <c r="D210" s="2" t="n">
-        <v>45509</v>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2024-08-05</t>
+        </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -7793,8 +8207,10 @@
       <c r="C211" t="n">
         <v>1</v>
       </c>
-      <c r="D211" s="2" t="n">
-        <v>45539</v>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2024-09-04</t>
+        </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -7826,8 +8242,10 @@
       <c r="C212" t="n">
         <v>1</v>
       </c>
-      <c r="D212" s="2" t="n">
-        <v>45548</v>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -7863,8 +8281,10 @@
       <c r="C213" t="n">
         <v>1</v>
       </c>
-      <c r="D213" s="2" t="n">
-        <v>45548</v>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -7900,8 +8320,10 @@
       <c r="C214" t="n">
         <v>1</v>
       </c>
-      <c r="D214" s="2" t="n">
-        <v>45548</v>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2024-09-13</t>
+        </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -7933,8 +8355,10 @@
       <c r="C215" t="n">
         <v>1</v>
       </c>
-      <c r="D215" s="2" t="n">
-        <v>45567</v>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -7970,8 +8394,10 @@
       <c r="C216" t="n">
         <v>1</v>
       </c>
-      <c r="D216" s="2" t="n">
-        <v>45567</v>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8007,8 +8433,10 @@
       <c r="C217" t="n">
         <v>1</v>
       </c>
-      <c r="D217" s="2" t="n">
-        <v>45568</v>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8040,8 +8468,10 @@
       <c r="C218" t="n">
         <v>1</v>
       </c>
-      <c r="D218" s="2" t="n">
-        <v>45569</v>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8077,8 +8507,10 @@
       <c r="C219" t="n">
         <v>1</v>
       </c>
-      <c r="D219" s="2" t="n">
-        <v>45569</v>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8110,8 +8542,10 @@
       <c r="C220" t="n">
         <v>1</v>
       </c>
-      <c r="D220" s="2" t="n">
-        <v>45569</v>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8147,8 +8581,10 @@
       <c r="C221" t="n">
         <v>1</v>
       </c>
-      <c r="D221" s="2" t="n">
-        <v>45574</v>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8184,8 +8620,10 @@
       <c r="C222" t="n">
         <v>1</v>
       </c>
-      <c r="D222" s="2" t="n">
-        <v>45574</v>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8217,8 +8655,10 @@
       <c r="C223" t="n">
         <v>1</v>
       </c>
-      <c r="D223" s="2" t="n">
-        <v>45574</v>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024-10-09</t>
+        </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8254,8 +8694,10 @@
       <c r="C224" t="n">
         <v>1</v>
       </c>
-      <c r="D224" s="2" t="n">
-        <v>45586</v>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8287,8 +8729,10 @@
       <c r="C225" t="n">
         <v>1</v>
       </c>
-      <c r="D225" s="2" t="n">
-        <v>45586</v>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8320,8 +8764,10 @@
       <c r="C226" t="n">
         <v>1</v>
       </c>
-      <c r="D226" s="2" t="n">
-        <v>45586</v>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2024-10-21</t>
+        </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8361,8 +8807,10 @@
       <c r="C227" t="n">
         <v>1</v>
       </c>
-      <c r="D227" s="2" t="n">
-        <v>45600</v>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8394,8 +8842,10 @@
       <c r="C228" t="n">
         <v>1</v>
       </c>
-      <c r="D228" s="2" t="n">
-        <v>45600</v>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -8427,8 +8877,10 @@
       <c r="C229" t="n">
         <v>1</v>
       </c>
-      <c r="D229" s="2" t="n">
-        <v>45600</v>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -8460,8 +8912,10 @@
       <c r="C230" t="n">
         <v>1</v>
       </c>
-      <c r="D230" s="2" t="n">
-        <v>45600</v>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2024-11-04</t>
+        </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -8497,8 +8951,10 @@
       <c r="C231" t="n">
         <v>1</v>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>45623</v>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -8530,8 +8986,10 @@
       <c r="C232" t="n">
         <v>1</v>
       </c>
-      <c r="D232" s="2" t="n">
-        <v>45623</v>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -8563,8 +9021,10 @@
       <c r="C233" t="n">
         <v>1</v>
       </c>
-      <c r="D233" s="2" t="n">
-        <v>45623</v>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -8604,8 +9064,10 @@
       <c r="C234" t="n">
         <v>1</v>
       </c>
-      <c r="D234" s="2" t="n">
-        <v>45629</v>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2024-12-03</t>
+        </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -8637,8 +9099,10 @@
       <c r="C235" t="n">
         <v>1</v>
       </c>
-      <c r="D235" s="2" t="n">
-        <v>45639</v>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -8674,8 +9138,10 @@
       <c r="C236" t="n">
         <v>1</v>
       </c>
-      <c r="D236" s="2" t="n">
-        <v>45639</v>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -8707,8 +9173,10 @@
       <c r="C237" t="n">
         <v>1</v>
       </c>
-      <c r="D237" s="2" t="n">
-        <v>45639</v>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2024-12-13</t>
+        </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -8744,8 +9212,10 @@
       <c r="C238" t="n">
         <v>1</v>
       </c>
-      <c r="D238" s="2" t="n">
-        <v>45656</v>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -8781,8 +9251,10 @@
       <c r="C239" t="n">
         <v>1</v>
       </c>
-      <c r="D239" s="2" t="n">
-        <v>45656</v>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -8814,8 +9286,10 @@
       <c r="C240" t="n">
         <v>1</v>
       </c>
-      <c r="D240" s="2" t="n">
-        <v>45656</v>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2024-12-30</t>
+        </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -8851,8 +9325,10 @@
       <c r="C241" t="n">
         <v>1</v>
       </c>
-      <c r="D241" s="2" t="n">
-        <v>45659</v>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
@@ -8888,8 +9364,10 @@
       <c r="C242" t="n">
         <v>1</v>
       </c>
-      <c r="D242" s="2" t="n">
-        <v>45659</v>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2025-01-02</t>
+        </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -8925,8 +9403,10 @@
       <c r="C243" t="n">
         <v>1</v>
       </c>
-      <c r="D243" s="2" t="n">
-        <v>45660</v>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2025-01-03</t>
+        </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -8958,8 +9438,10 @@
       <c r="C244" t="n">
         <v>1</v>
       </c>
-      <c r="D244" s="2" t="n">
-        <v>45667</v>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -8995,8 +9477,10 @@
       <c r="C245" t="n">
         <v>1</v>
       </c>
-      <c r="D245" s="2" t="n">
-        <v>45667</v>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9032,8 +9516,10 @@
       <c r="C246" t="n">
         <v>1</v>
       </c>
-      <c r="D246" s="2" t="n">
-        <v>45667</v>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9065,8 +9551,10 @@
       <c r="C247" t="n">
         <v>1</v>
       </c>
-      <c r="D247" s="2" t="n">
-        <v>45691</v>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9102,8 +9590,10 @@
       <c r="C248" t="n">
         <v>1</v>
       </c>
-      <c r="D248" s="2" t="n">
-        <v>45691</v>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9135,8 +9625,10 @@
       <c r="C249" t="n">
         <v>1</v>
       </c>
-      <c r="D249" s="2" t="n">
-        <v>45691</v>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9172,8 +9664,10 @@
       <c r="C250" t="n">
         <v>1</v>
       </c>
-      <c r="D250" s="2" t="n">
-        <v>45692</v>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2025-02-04</t>
+        </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9205,8 +9699,10 @@
       <c r="C251" t="n">
         <v>1</v>
       </c>
-      <c r="D251" s="2" t="n">
-        <v>45694</v>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9238,8 +9734,10 @@
       <c r="C252" t="n">
         <v>1</v>
       </c>
-      <c r="D252" s="2" t="n">
-        <v>45694</v>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9271,8 +9769,10 @@
       <c r="C253" t="n">
         <v>1</v>
       </c>
-      <c r="D253" s="2" t="n">
-        <v>45694</v>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2025-02-06</t>
+        </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -9304,8 +9804,10 @@
       <c r="C254" t="n">
         <v>1</v>
       </c>
-      <c r="D254" s="2" t="n">
-        <v>45720</v>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
@@ -9337,8 +9839,10 @@
       <c r="C255" t="n">
         <v>1</v>
       </c>
-      <c r="D255" s="2" t="n">
-        <v>45720</v>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -9370,8 +9874,10 @@
       <c r="C256" t="n">
         <v>1</v>
       </c>
-      <c r="D256" s="2" t="n">
-        <v>45720</v>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -9411,8 +9917,10 @@
       <c r="C257" t="n">
         <v>1</v>
       </c>
-      <c r="D257" s="2" t="n">
-        <v>45721</v>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2025-03-05</t>
+        </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -9444,8 +9952,10 @@
       <c r="C258" t="n">
         <v>1</v>
       </c>
-      <c r="D258" s="2" t="n">
-        <v>45730</v>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -9481,8 +9991,10 @@
       <c r="C259" t="n">
         <v>1</v>
       </c>
-      <c r="D259" s="2" t="n">
-        <v>45730</v>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -9518,8 +10030,10 @@
       <c r="C260" t="n">
         <v>1</v>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>45730</v>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2025-03-14</t>
+        </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -9551,8 +10065,10 @@
       <c r="C261" t="n">
         <v>1</v>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>45749</v>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -9588,8 +10104,10 @@
       <c r="C262" t="n">
         <v>1</v>
       </c>
-      <c r="D262" s="2" t="n">
-        <v>45749</v>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
@@ -9625,8 +10143,10 @@
       <c r="C263" t="n">
         <v>1</v>
       </c>
-      <c r="D263" s="2" t="n">
-        <v>45750</v>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -9662,8 +10182,10 @@
       <c r="C264" t="n">
         <v>1</v>
       </c>
-      <c r="D264" s="2" t="n">
-        <v>45750</v>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -9695,8 +10217,10 @@
       <c r="C265" t="n">
         <v>1</v>
       </c>
-      <c r="D265" s="2" t="n">
-        <v>45750</v>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -9732,8 +10256,10 @@
       <c r="C266" t="n">
         <v>1</v>
       </c>
-      <c r="D266" s="2" t="n">
-        <v>45755</v>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -9765,8 +10291,10 @@
       <c r="C267" t="n">
         <v>1</v>
       </c>
-      <c r="D267" s="2" t="n">
-        <v>45772</v>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -9802,8 +10330,10 @@
       <c r="C268" t="n">
         <v>1</v>
       </c>
-      <c r="D268" s="2" t="n">
-        <v>45772</v>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -9835,8 +10365,10 @@
       <c r="C269" t="n">
         <v>1</v>
       </c>
-      <c r="D269" s="2" t="n">
-        <v>45772</v>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -9872,8 +10404,10 @@
       <c r="C270" t="n">
         <v>1</v>
       </c>
-      <c r="D270" s="2" t="n">
-        <v>45778</v>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -9909,8 +10443,10 @@
       <c r="C271" t="n">
         <v>1</v>
       </c>
-      <c r="D271" s="2" t="n">
-        <v>45778</v>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -9942,8 +10478,10 @@
       <c r="C272" t="n">
         <v>1</v>
       </c>
-      <c r="D272" s="2" t="n">
-        <v>45778</v>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2025-05-01</t>
+        </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -9979,8 +10517,10 @@
       <c r="C273" t="n">
         <v>1</v>
       </c>
-      <c r="D273" s="2" t="n">
-        <v>45782</v>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2025-05-05</t>
+        </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
